--- a/doc/2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
+++ b/doc/2023年上期/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="gZ27+B2sjoO+B1lgv+vzLf8SEgejJwriLbVTsZEHWZA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="azkYx4YJGIyWoG35cdR++tMVYGVWcULEoTRr8hBAsOI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -325,31 +325,16 @@
     <t xml:space="preserve"> 2.1 初期表示時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-1-1. （番組情報）、（番組検索結果）を初期化する。</t>
+    <t xml:space="preserve">　　2-1-1. API「 番組出演者検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-2. バリデーションチェックとして、以下のチェックを行う。</t>
+    <t xml:space="preserve">　　2-1-2.【2-2-1】で取得した結果が存在する場合は、データ部へ設定する。</t>
   </si>
   <si>
-    <t>① 番組ID、オンエア日、番組ジャンルが必須で設定されていること。</t>
+    <t xml:space="preserve">　　2-1-3.【2-2-1】で取得した結果がない場合は、ヘッダーのみを表示させる。</t>
   </si>
   <si>
-    <t>② オンエア日がYYYY/MM/DD形式であること。</t>
-  </si>
-  <si>
-    <t>※上記のチェック結果を画面上部に表示する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-3. API「 番組出演者検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-4.【2-2-3】で取得した結果が存在する場合は、データ部へ設定する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-5.【2-2-4】で取得した結果がない場合は、ヘッダーのみを表示させる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　　2-2-6.【2-2-4】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
+    <t xml:space="preserve">　　2-1-4.【2-2-1】で取得した結果のうち、データが10件を超える場合は、最初の10件を表示させ、残りは10件ずつ別の領域に保管してページングリンクを表示させる。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.2 出演名クリック時</t>
@@ -377,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -413,12 +398,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +434,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FFD0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -774,9 +749,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -30523,7 +30495,7 @@
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" s="31"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>92</v>
       </c>
       <c r="C14" s="31"/>
@@ -30581,7 +30553,7 @@
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="31"/>
@@ -30612,9 +30584,7 @@
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="60" t="s">
-        <v>94</v>
-      </c>
+      <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -30641,10 +30611,10 @@
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="60" t="s">
-        <v>95</v>
+      <c r="B18" s="60" t="s">
+        <v>94</v>
       </c>
+      <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -30672,9 +30642,7 @@
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
-      <c r="C19" s="59" t="s">
-        <v>96</v>
-      </c>
+      <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -30701,7 +30669,9 @@
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="60" t="s">
+        <v>95</v>
+      </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -30729,9 +30699,7 @@
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="31"/>
-      <c r="B21" s="61" t="s">
-        <v>97</v>
-      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
@@ -30759,7 +30727,9 @@
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
@@ -30787,8 +30757,8 @@
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="31"/>
-      <c r="B23" s="59" t="s">
-        <v>98</v>
+      <c r="B23" s="60" t="s">
+        <v>97</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -30846,7 +30816,7 @@
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="31"/>
       <c r="B25" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -30875,7 +30845,9 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
+      <c r="B26" s="59" t="s">
+        <v>99</v>
+      </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -30903,9 +30875,7 @@
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="31"/>
-      <c r="B27" s="59" t="s">
-        <v>100</v>
-      </c>
+      <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
@@ -30933,7 +30903,9 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="B28" s="60" t="s">
+        <v>100</v>
+      </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -30961,7 +30933,7 @@
     </row>
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="31"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="60" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="31"/>
@@ -30989,212 +30961,13 @@
       <c r="Y29" s="31"/>
       <c r="Z29" s="31"/>
     </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-    </row>
+    <row r="30" ht="18.75" customHeight="1"/>
+    <row r="31" ht="18.75" customHeight="1"/>
+    <row r="32" ht="18.75" customHeight="1"/>
+    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1"/>
+    <row r="35" ht="18.75" customHeight="1"/>
+    <row r="36" ht="18.75" customHeight="1"/>
     <row r="37" ht="18.75" customHeight="1"/>
     <row r="38" ht="18.75" customHeight="1"/>
     <row r="39" ht="18.75" customHeight="1"/>
@@ -32147,13 +31920,6 @@
     <row r="986" ht="18.75" customHeight="1"/>
     <row r="987" ht="18.75" customHeight="1"/>
     <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:C2"/>
